--- a/com.luma/src/test/resources/test_data.xlsx
+++ b/com.luma/src/test/resources/test_data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13174\IdeaProjects\SeleniumBootcamp\com.luma\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82ABD372-ED2A-43E1-B362-83240E0BFB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5D583F-87A8-4FFC-970C-68BB2469421F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4512" yWindow="2136" windowWidth="17280" windowHeight="8880" xr2:uid="{8D589474-873B-464D-9C5C-DC1BF1F49BFB}"/>
+    <workbookView xWindow="4476" yWindow="108" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{8D589474-873B-464D-9C5C-DC1BF1F49BFB}"/>
   </bookViews>
   <sheets>
     <sheet name="doSignIn" sheetId="1" r:id="rId1"/>
-    <sheet name="doSearch" sheetId="2" r:id="rId2"/>
+    <sheet name="createAccount" sheetId="3" r:id="rId2"/>
+    <sheet name="doSearch" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Email</t>
   </si>
@@ -88,7 +89,43 @@
     <t>toubouachefazia@gmail.comFazia@96us</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fazia@96us</t>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>tito</t>
+  </si>
+  <si>
+    <t>titi</t>
+  </si>
+  <si>
+    <t>wiwi</t>
+  </si>
+  <si>
+    <t>wiwa</t>
+  </si>
+  <si>
+    <t>juju</t>
+  </si>
+  <si>
+    <t>juba</t>
+  </si>
+  <si>
+    <t>Qwerrty2023/*-</t>
+  </si>
+  <si>
+    <t>Qwertty2023/*-</t>
+  </si>
+  <si>
+    <t>zoaokh@gmail.com</t>
+  </si>
+  <si>
+    <t>wiwyji@gmail.com</t>
+  </si>
+  <si>
+    <t>jujhttuba@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -456,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7294D43D-1994-495B-9109-4C6233579B06}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,9 +522,6 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -518,6 +552,85 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B6A86A-D3A2-47A6-BD45-3C3F8A088D4A}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="27.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{89AA9D9C-0869-4ED4-B6A5-2F947D9A705A}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{BCC5A9E2-EE9F-4583-81D2-DB86E39DFDF7}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{FD18D400-9421-4BBB-A387-4677ED3F584D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BDC866-2DE2-48BA-88E3-AF9DE8459EBB}">
   <dimension ref="A1:A11"/>
   <sheetViews>

--- a/com.luma/src/test/resources/test_data.xlsx
+++ b/com.luma/src/test/resources/test_data.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13174\IdeaProjects\SeleniumBootcamp\com.luma\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5D583F-87A8-4FFC-970C-68BB2469421F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2BA9ED-EA1D-4816-9416-9A74F7279BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4476" yWindow="108" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{8D589474-873B-464D-9C5C-DC1BF1F49BFB}"/>
+    <workbookView xWindow="4824" yWindow="456" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{8D589474-873B-464D-9C5C-DC1BF1F49BFB}"/>
   </bookViews>
   <sheets>
     <sheet name="doSignIn" sheetId="1" r:id="rId1"/>
     <sheet name="createAccount" sheetId="3" r:id="rId2"/>
     <sheet name="doSearch" sheetId="2" r:id="rId3"/>
+    <sheet name="DoInvalidLogin" sheetId="4" r:id="rId4"/>
+    <sheet name="doSubscribe" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>Email</t>
   </si>
@@ -126,6 +129,36 @@
   </si>
   <si>
     <t>jujhttuba@gmail.com</t>
+  </si>
+  <si>
+    <t>Invalid email adress</t>
+  </si>
+  <si>
+    <t>bomado@gmail.com</t>
+  </si>
+  <si>
+    <t>gdjjsk2023</t>
+  </si>
+  <si>
+    <t>trebbdj@gmail.com</t>
+  </si>
+  <si>
+    <t>hfshy123</t>
+  </si>
+  <si>
+    <t>rojdk@gmailcom</t>
+  </si>
+  <si>
+    <t>pouudj785</t>
+  </si>
+  <si>
+    <t>luma@gmail.com</t>
+  </si>
+  <si>
+    <t>luma3@gmail.com</t>
+  </si>
+  <si>
+    <t>luma2@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -555,7 +588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B6A86A-D3A2-47A6-BD45-3C3F8A088D4A}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -634,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BDC866-2DE2-48BA-88E3-AF9DE8459EBB}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,4 +734,114 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81293D13-6E44-4EE3-B12E-0F9F0384FF8F}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{53644810-8FA5-44E5-9553-4546C35FB095}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{E18A4AFA-D009-48E5-B149-F0DB16513B32}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{FA0926B0-E7FD-4B43-A83C-C62D54569AE4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559E5060-ED64-442A-9091-43A7E5E9CBB6}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{FC9B77E5-B2F0-421C-BACD-814F6E10CDDD}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{1AE35816-FD98-4391-965E-05DF1F0AA5B0}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{4D7713FB-6A39-4093-A1F3-9FEDEBC95ACB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B955B1E-7D33-498E-A423-3725C4B13F9F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/com.luma/src/test/resources/test_data.xlsx
+++ b/com.luma/src/test/resources/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13174\IdeaProjects\SeleniumBootcamp\com.luma\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2BA9ED-EA1D-4816-9416-9A74F7279BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9DD435-204D-4374-A687-C28AA8EE4772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4824" yWindow="456" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{8D589474-873B-464D-9C5C-DC1BF1F49BFB}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" xr2:uid="{8D589474-873B-464D-9C5C-DC1BF1F49BFB}"/>
   </bookViews>
   <sheets>
     <sheet name="doSignIn" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Email</t>
   </si>
@@ -38,15 +38,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>tinatebany@gmail.com</t>
-  </si>
-  <si>
-    <t>sarafaty07@gmail.com</t>
-  </si>
-  <si>
-    <t>Fatma2023</t>
-  </si>
-  <si>
     <t>searchTerm</t>
   </si>
   <si>
@@ -80,85 +71,91 @@
     <t>Lando Gym Jacket</t>
   </si>
   <si>
-    <t>tititiha@gmail.com</t>
-  </si>
-  <si>
-    <t>QWERTY2025/*-</t>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>tito</t>
+  </si>
+  <si>
+    <t>titi</t>
+  </si>
+  <si>
+    <t>wiwi</t>
+  </si>
+  <si>
+    <t>wiwa</t>
+  </si>
+  <si>
+    <t>juju</t>
+  </si>
+  <si>
+    <t>juba</t>
+  </si>
+  <si>
+    <t>Qwerrty2023/*-</t>
+  </si>
+  <si>
+    <t>Qwertty2023/*-</t>
+  </si>
+  <si>
+    <t>Invalid email adress</t>
+  </si>
+  <si>
+    <t>bomado@gmail.com</t>
+  </si>
+  <si>
+    <t>gdjjsk2023</t>
+  </si>
+  <si>
+    <t>trebbdj@gmail.com</t>
+  </si>
+  <si>
+    <t>hfshy123</t>
+  </si>
+  <si>
+    <t>rojdk@gmailcom</t>
+  </si>
+  <si>
+    <t>pouudj785</t>
+  </si>
+  <si>
+    <t>luma@gmail.com</t>
+  </si>
+  <si>
+    <t>luma3@gmail.com</t>
+  </si>
+  <si>
+    <t>luma2@gmail.com</t>
+  </si>
+  <si>
+    <t>zooaollnlkh@gmail.com</t>
+  </si>
+  <si>
+    <t>wikwykjnjji@gmail.com</t>
+  </si>
+  <si>
+    <t>jujhktknktuba@gmail.com</t>
+  </si>
+  <si>
+    <t>bouba2022/*-</t>
+  </si>
+  <si>
+    <t>booba2@gmail.com</t>
+  </si>
+  <si>
+    <t>titinou@gmail.com</t>
   </si>
   <si>
     <t>Qwerty2023/*-</t>
   </si>
   <si>
-    <t>toubouachefazia@gmail.comFazia@96us</t>
-  </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>tito</t>
-  </si>
-  <si>
-    <t>titi</t>
-  </si>
-  <si>
-    <t>wiwi</t>
-  </si>
-  <si>
-    <t>wiwa</t>
-  </si>
-  <si>
-    <t>juju</t>
-  </si>
-  <si>
-    <t>juba</t>
-  </si>
-  <si>
-    <t>Qwerrty2023/*-</t>
-  </si>
-  <si>
-    <t>Qwertty2023/*-</t>
-  </si>
-  <si>
-    <t>zoaokh@gmail.com</t>
-  </si>
-  <si>
-    <t>wiwyji@gmail.com</t>
-  </si>
-  <si>
-    <t>jujhttuba@gmail.com</t>
-  </si>
-  <si>
-    <t>Invalid email adress</t>
-  </si>
-  <si>
-    <t>bomado@gmail.com</t>
-  </si>
-  <si>
-    <t>gdjjsk2023</t>
-  </si>
-  <si>
-    <t>trebbdj@gmail.com</t>
-  </si>
-  <si>
-    <t>hfshy123</t>
-  </si>
-  <si>
-    <t>rojdk@gmailcom</t>
-  </si>
-  <si>
-    <t>pouudj785</t>
-  </si>
-  <si>
-    <t>luma@gmail.com</t>
-  </si>
-  <si>
-    <t>luma3@gmail.com</t>
-  </si>
-  <si>
-    <t>luma2@gmail.com</t>
+    <t>kouka@gmail.com</t>
+  </si>
+  <si>
+    <t>loulou@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -526,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7294D43D-1994-495B-9109-4C6233579B06}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,41 +543,45 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
+      <c r="A5" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{FC256AE2-938B-48BA-80BE-F8888C4B2558}"/>
     <hyperlink ref="A2" r:id="rId2" xr:uid="{E13CAF21-1572-4400-B9A0-F6C579B2F095}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{780537BE-EA2E-4BF5-8A46-DAA89CCCC3F7}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{18F33993-0688-407B-913C-016F1E17A4A9}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{BAECFB1C-63ED-479B-A5D1-6444F730F829}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -589,7 +590,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,10 +600,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -613,44 +614,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BDC866-2DE2-48BA-88E3-AF9DE8459EBB}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -678,57 +679,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -751,7 +752,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -759,26 +760,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -811,17 +812,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/com.luma/src/test/resources/test_data.xlsx
+++ b/com.luma/src/test/resources/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13174\IdeaProjects\SeleniumBootcamp\com.luma\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9DD435-204D-4374-A687-C28AA8EE4772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A757A413-0293-415E-BF96-87F469ACF505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" xr2:uid="{8D589474-873B-464D-9C5C-DC1BF1F49BFB}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{8D589474-873B-464D-9C5C-DC1BF1F49BFB}"/>
   </bookViews>
   <sheets>
     <sheet name="doSignIn" sheetId="1" r:id="rId1"/>
@@ -131,15 +131,6 @@
     <t>luma2@gmail.com</t>
   </si>
   <si>
-    <t>zooaollnlkh@gmail.com</t>
-  </si>
-  <si>
-    <t>wikwykjnjji@gmail.com</t>
-  </si>
-  <si>
-    <t>jujhktknktuba@gmail.com</t>
-  </si>
-  <si>
     <t>bouba2022/*-</t>
   </si>
   <si>
@@ -156,6 +147,15 @@
   </si>
   <si>
     <t>loulou@gmail.com</t>
+  </si>
+  <si>
+    <t>zo889ao9lnlkh@gmail.com</t>
+  </si>
+  <si>
+    <t>w78kwykjn7jji@gmail.com</t>
+  </si>
+  <si>
+    <t>66hkt7knk7uba@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7294D43D-1994-495B-9109-4C6233579B06}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -543,34 +543,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B6A86A-D3A2-47A6-BD45-3C3F8A088D4A}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -620,7 +620,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -634,7 +634,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -648,7 +648,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
